--- a/data/trans_camb/P5_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,84</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 10,43</t>
+          <t>-8,12; 10,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 7,97</t>
+          <t>-8,28; 8,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 6,76</t>
+          <t>-5,06; 7,31</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>4,83%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 66,54</t>
+          <t>-32,48; 69,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 72,02</t>
+          <t>-44,06; 74,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 48,52</t>
+          <t>-25,44; 51,4</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 9,82</t>
+          <t>-5,1; 9,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 8,06</t>
+          <t>-5,65; 7,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 7,15</t>
+          <t>-3,49; 6,67</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,91%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 114,69</t>
+          <t>-35,78; 113,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 86,03</t>
+          <t>-38,55; 85,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 76,85</t>
+          <t>-24,96; 69,18</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>2,34</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 19,0</t>
+          <t>-0,89; 12,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 7,84</t>
+          <t>-5,23; 5,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 11,55</t>
+          <t>-1,48; 6,84</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>20,11%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 233,03</t>
+          <t>-12,69; 132,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 75,34</t>
+          <t>-35,38; 57,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 113,05</t>
+          <t>-10,87; 71,33</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 2,27</t>
+          <t>-11,14; 2,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 8,02</t>
+          <t>-4,09; 6,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,89</t>
+          <t>-5,76; 3,06</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-20,96%</t>
+          <t>-22,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,92%</t>
+          <t>-8,82%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 20,26</t>
+          <t>-52,91; 18,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 75,86</t>
+          <t>-28,52; 60,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 32,78</t>
+          <t>-33,9; 26,53</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 8,43</t>
+          <t>-5,67; 8,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 5,22</t>
+          <t>-7,78; 6,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 4,82</t>
+          <t>-5,0; 5,03</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,92%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 55,69</t>
+          <t>-26,36; 54,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,09; 39,04</t>
+          <t>-37,66; 43,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 30,84</t>
+          <t>-23,56; 30,31</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,4</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 5,07</t>
+          <t>-10,74; 4,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 7,78</t>
+          <t>-4,14; 8,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 4,29</t>
+          <t>-5,11; 4,25</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-2,61%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 33,76</t>
+          <t>-48,56; 27,48</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 75,02</t>
+          <t>-28,64; 81,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 31,64</t>
+          <t>-29,33; 32,14</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,42</t>
+          <t>-2,22; 3,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,46</t>
+          <t>-2,1; 2,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,16</t>
+          <t>-1,31; 2,5</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 31,55</t>
+          <t>-13,13; 26,94</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 28,69</t>
+          <t>-14,16; 24,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 23,51</t>
+          <t>-8,53; 17,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.925457752740117</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2383416781633979</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.7764424806743692</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 10,61</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,28; 8,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 7,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.953362854725039</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.125234467227155</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.404397432659795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,34%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,77%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.06731781308607</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.109507037224597</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.378275764884303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-32,48; 69,62</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-44,06; 74,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-25,44; 51,4</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.09680337761613005</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.01647051657869111</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.04482994106616062</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2980647470404599</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4804409689862705</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2708860212467233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 9,9</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; 7,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 6,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.8346478640924979</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6667031954909084</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.5265069869539257</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>22,76%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,91%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.345612071804873</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8455509822001841</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.637237096494222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-35,78; 113,83</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-38,55; 85,29</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-24,96; 69,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.047101939562431</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.635443706299436</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.374109813134788</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.657308850608333</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.913610284844469</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.644285221191956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 12,27</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 5,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 6,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.2011795150094279</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.07115521756879836</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.139142333617193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>44,5%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>20,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3633538074896783</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3934864059801624</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2551595045368427</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; 132,76</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-35,38; 57,83</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; 71,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.112792815141514</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.8670918225265042</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.689495996217883</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>5.0044492060869</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.3136662202090634</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.635573881489096</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-11,14; 2,19</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 6,52</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,76; 3,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.377581863028795</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.897810534769775</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.300504807003667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-22,49%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-8,82%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.74851016475928</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.151765429595899</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.527696229443221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-52,91; 18,86</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-28,52; 60,67</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-33,9; 26,53</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.4511165928333642</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02583158742264798</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.2267135193042298</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1514690800695968</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3364706012252833</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.103909442714906</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 8,85</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 6,05</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 5,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.323473326585472</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6467694819461804</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7616740002546102</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-5,16%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.52846310981588</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.643398683530251</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.8287220334878054</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-26,36; 54,46</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-37,66; 43,47</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-23,56; 30,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.90786262854715</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.554879132230028</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.287254063848968</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.417315172389315</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.435203314763411</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.661894376569969</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-10,74; 4,28</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 8,18</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 4,25</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.2169665404829734</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.1285424758743547</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0573915341582726</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-15,87%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>11,52%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-2,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.5240373686706236</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2541937730015004</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.318224733562369</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-48,56; 27,48</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-28,64; 81,4</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-29,33; 32,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1939221634081613</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.6783773651854323</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.3156757841959207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>1.176448012704159</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-1.08036812905897</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.01376336305493053</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 3,84</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 2,99</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 2,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-6.163480797148186</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-8.011307142172237</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-5.041170846466261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>8.625348701633595</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>5.885227424634435</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>4.802843472150511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-13,13; 26,94</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-14,16; 24,42</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 17,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.06048449569039252</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.06337882622721389</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.0007537624136271746</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.2749315091200247</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.3810409093674264</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.2414657776548688</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.5233820077324961</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.4275934551233131</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.2980876670558996</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-3.061536315643234</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1.51755909798868</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-0.4390292914028232</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-10.73283197255332</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-4.285922395580907</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-5.005539230860891</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>4.339633212303804</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>8.466233358217602</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>4.596958296744336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.1671761161289604</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.1185016193729865</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.02895432596237581</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.4933703902074996</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.2858909151542035</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2935829439515882</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.2946648976068965</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.8772273183164346</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.3371235025046091</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.6291004552704454</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.6231470914790177</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.6260549475655824</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-2.189008639125962</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-1.988206266184685</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-1.315091580724401</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>3.9102827058498</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>3.105439712283294</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>2.627225707554796</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.03972692339224862</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.04669536956834592</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.04299384532329376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1291430824445805</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1381780024772065</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.08443762053157822</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.2786445812008342</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.2583262041865649</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.1900394938723672</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
